--- a/Multi-LCA/test.xlsx
+++ b/Multi-LCA/test.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>USEtox, human toxicity, carcinogenic</t>
+  </si>
+  <si>
+    <t>USEtox w/o LT, human toxicity w/o LT, carcinogenic w/o LT</t>
+  </si>
+  <si>
+    <t>USEtox w/o LT, human toxicity w/o LT, non-carcinogenic w/o LT</t>
+  </si>
   <si>
     <t>CML 2001, freshwater aquatic ecotoxicity, FAETP infinite</t>
   </si>
@@ -22,16 +31,37 @@
     <t>TRACI, environmental impact, global warming</t>
   </si>
   <si>
-    <t>USEtox, ecotoxicity, total</t>
-  </si>
-  <si>
-    <t>hard coal briquettes, at plant</t>
-  </si>
-  <si>
-    <t>hard coal briquettes production plant</t>
-  </si>
-  <si>
-    <t>disposal, basic oxygen furnace wastes, 0% water, to residual material landfill</t>
+    <t>transport, freight, rail // RER</t>
+  </si>
+  <si>
+    <t>aluminium, secondary, from old scrap, at plant // RER</t>
+  </si>
+  <si>
+    <t>aluminium fluoride, at plant // RER</t>
+  </si>
+  <si>
+    <t>goods wagon // RER</t>
+  </si>
+  <si>
+    <t>transport, regular bus // CH</t>
+  </si>
+  <si>
+    <t>transport, regional train, SBB mix // CH</t>
+  </si>
+  <si>
+    <t>transport, passenger car, rape seed methyl ester 5% // CH</t>
+  </si>
+  <si>
+    <t>transport, passenger car, petrol, fleet average // RER</t>
+  </si>
+  <si>
+    <t>transport, passenger car, petrol, fleet average 2010 // RER</t>
+  </si>
+  <si>
+    <t>transport, passenger car, petrol, EURO5 // CH</t>
+  </si>
+  <si>
+    <t>transport, passenger car, petrol, fleet average 2010 // CH</t>
   </si>
 </sst>
 </file>
@@ -389,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +429,7 @@
     <col min="2" max="51" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,47 +439,231 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>0.0174331888016535</v>
+        <v>6.11834111716641e-09</v>
       </c>
       <c r="C2" s="2">
-        <v>0.0112679767194407</v>
+        <v>1.16986511014517e-09</v>
       </c>
       <c r="D2" s="2">
-        <v>0.132436559030953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>5.20685662544693e-09</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.0166372839469184</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0394817265713423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>10681166.7209658</v>
+        <v>7.76986480078294e-08</v>
       </c>
       <c r="C3" s="2">
-        <v>23340814.7273227</v>
+        <v>1.18286171562146e-08</v>
       </c>
       <c r="D3" s="2">
-        <v>136858520.103025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>2.67467081106701e-06</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.610716919861909</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.37461017200663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>0.221005724930496</v>
+        <v>9.48724325963283e-07</v>
       </c>
       <c r="C4" s="2">
-        <v>0.328512672581373</v>
+        <v>2.27112996299612e-07</v>
       </c>
       <c r="D4" s="2">
-        <v>66.6515356632339</v>
+        <v>4.95991288515604e-07</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.96331138980977</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.17649807435975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.0348347747350237</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.00821171373065957</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.0275403673620188</v>
+      </c>
+      <c r="E5" s="2">
+        <v>52718.3014659418</v>
+      </c>
+      <c r="F5" s="2">
+        <v>55735.262713645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.09075359271595e-09</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.82535687674349e-10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.95170518897997e-09</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.00629480932297346</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.10411510680133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.18848507648884e-09</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.35339914335001e-10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.46085300939236e-09</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.00635966028765466</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.0108723380960997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.14995073159386e-08</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.56922243219042e-09</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.66667264475751e-08</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.0282599652823003</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.16284241375265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.15285647589676e-08</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.60734177377046e-09</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.40295757155818e-08</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.0233567165726813</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.182519487960517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.15051539798842e-08</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.58123813094292e-09</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.40358933797752e-08</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.0233543946911205</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.181977040251944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.15154613974297e-08</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.55776302686875e-09</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.8118490866815e-08</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.0231236009596214</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.166277108199946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.15602100365737e-08</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.57877964027259e-09</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.42114190321716e-08</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.0235827603490776</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.193065383155748</v>
       </c>
     </row>
   </sheetData>
